--- a/Endmember_calibration_data.xlsx
+++ b/Endmember_calibration_data.xlsx
@@ -456,13 +456,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1882117738954319</v>
+        <v>0.1870163410860064</v>
       </c>
       <c r="B2">
-        <v>0.4060398136101744</v>
+        <v>0.3926418108637634</v>
       </c>
       <c r="C2">
-        <v>0.3665586164087234</v>
+        <v>0.3547357508664442</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -473,13 +473,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.09944431512716524</v>
+        <v>0.09881269153341542</v>
       </c>
       <c r="B3">
-        <v>1.117646689661665</v>
+        <v>1.080767957784449</v>
       </c>
       <c r="C3">
-        <v>0.836586886706275</v>
+        <v>0.8324613215882146</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -490,13 +490,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.1285414661083083</v>
+        <v>0.1277250310746376</v>
       </c>
       <c r="B4">
-        <v>0.7861068650172014</v>
+        <v>0.7601678768110236</v>
       </c>
       <c r="C4">
-        <v>0.7189270198522462</v>
+        <v>0.712296314250805</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1053132062423072</v>
+        <v>0.1046443062080416</v>
       </c>
       <c r="B5">
-        <v>0.7114639478179292</v>
+        <v>0.687987934857317</v>
       </c>
       <c r="C5">
-        <v>0.7421249952479927</v>
+        <v>0.7359574824577119</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -524,13 +524,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.1344887749067263</v>
+        <v>0.1336345653602381</v>
       </c>
       <c r="B6">
-        <v>0.4199114958093265</v>
+        <v>0.4060557723420111</v>
       </c>
       <c r="C6">
-        <v>0.5148314962652412</v>
+        <v>0.5047731781554882</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.08246049159610247</v>
+        <v>0.08193674127434999</v>
       </c>
       <c r="B7">
-        <v>0.5790068059722628</v>
+        <v>0.5599014509883923</v>
       </c>
       <c r="C7">
-        <v>0.7506740185063198</v>
+        <v>0.7446810044584929</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.07145306846202294</v>
+        <v>0.07099923212327676</v>
       </c>
       <c r="B8">
-        <v>0.8705705865172716</v>
+        <v>0.8418445682349829</v>
       </c>
       <c r="C8">
-        <v>0.8482987808547261</v>
+        <v>0.8444438531643377</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -575,13 +575,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.1270806490122385</v>
+        <v>0.1262734924028081</v>
       </c>
       <c r="B9">
-        <v>0.7600310649709263</v>
+        <v>0.7349524939675065</v>
       </c>
       <c r="C9">
-        <v>0.7134957254895404</v>
+        <v>0.7067587499652797</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.1798440246497861</v>
+        <v>0.1787017398543358</v>
       </c>
       <c r="B10">
-        <v>0.7638138225844994</v>
+        <v>0.7386104327943575</v>
       </c>
       <c r="C10">
-        <v>0.618836371303686</v>
+        <v>0.6103796609646127</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>0.06848219394622987</v>
+        <v>0.06804722720737831</v>
       </c>
       <c r="B11">
-        <v>0.6114294311835665</v>
+        <v>0.591254234260393</v>
       </c>
       <c r="C11">
-        <v>0.7985556021838676</v>
+        <v>0.7935778056493671</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.07638924679836821</v>
+        <v>0.0759040581727044</v>
       </c>
       <c r="B12">
-        <v>0.7040554390250379</v>
+        <v>0.6808238829325133</v>
       </c>
       <c r="C12">
-        <v>0.804241740161831</v>
+        <v>0.7993887788474022</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>0.08239702841366743</v>
+        <v>0.08187368118024946</v>
       </c>
       <c r="B13">
-        <v>0.3300477037587729</v>
+        <v>0.3191571952589043</v>
       </c>
       <c r="C13">
-        <v>0.6004457228503635</v>
+        <v>0.5916839027098119</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>0.08440297954495869</v>
+        <v>0.08386689145188662</v>
       </c>
       <c r="B14">
-        <v>0.5409500039826886</v>
+        <v>0.5231004005790447</v>
       </c>
       <c r="C14">
-        <v>0.7300629188051929</v>
+        <v>0.7236526825975567</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>0.1458010014147144</v>
+        <v>0.144874941917315</v>
       </c>
       <c r="B15">
-        <v>0.6803936666401155</v>
+        <v>0.6579428726324205</v>
       </c>
       <c r="C15">
-        <v>0.6470541216200674</v>
+        <v>0.6390838885443295</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -694,13 +694,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1.006392130241045</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>1.034122710255785</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.01358999183166338</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>

--- a/Endmember_calibration_data.xlsx
+++ b/Endmember_calibration_data.xlsx
@@ -25,12 +25,15 @@
     <t>NDVI_Endmember</t>
   </si>
   <si>
-    <t>Test_Pattern</t>
+    <t>Plant_Type</t>
   </si>
   <si>
     <t>Test_Number</t>
   </si>
   <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
     <t>Palm</t>
   </si>
   <si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t>Coral</t>
-  </si>
-  <si>
-    <t>Piny Green</t>
   </si>
   <si>
     <t>More Green Plant</t>
@@ -456,13 +456,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1870163410860064</v>
+        <v>0.05644740811392837</v>
       </c>
       <c r="B2">
-        <v>0.3926418108637634</v>
+        <v>0.07865813722574855</v>
       </c>
       <c r="C2">
-        <v>0.3547357508664442</v>
+        <v>0.164395392180083</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -473,13 +473,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.09881269153341542</v>
+        <v>0.1878047200867781</v>
       </c>
       <c r="B3">
-        <v>1.080767957784449</v>
+        <v>0.3882576717741545</v>
       </c>
       <c r="C3">
-        <v>0.8324613215882146</v>
+        <v>0.3479709047484005</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -490,13 +490,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.1277250310746376</v>
+        <v>0.09359334001739344</v>
       </c>
       <c r="B4">
-        <v>0.7601678768110236</v>
+        <v>1.108918777358624</v>
       </c>
       <c r="C4">
-        <v>0.712296314250805</v>
+        <v>0.8443369698068043</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -507,13 +507,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1046443062080416</v>
+        <v>0.1214983946015601</v>
       </c>
       <c r="B5">
-        <v>0.687987934857317</v>
+        <v>0.8580241928393715</v>
       </c>
       <c r="C5">
-        <v>0.7359574824577119</v>
+        <v>0.7519232406493396</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -524,13 +524,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.1336345653602381</v>
+        <v>0.09071705834422165</v>
       </c>
       <c r="B6">
-        <v>0.4060557723420111</v>
+        <v>0.6381327816132304</v>
       </c>
       <c r="C6">
-        <v>0.5047731781554882</v>
+        <v>0.7510679062520823</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.08193674127434999</v>
+        <v>0.1336345653602381</v>
       </c>
       <c r="B7">
-        <v>0.5599014509883923</v>
+        <v>0.4060557723420111</v>
       </c>
       <c r="C7">
-        <v>0.7446810044584929</v>
+        <v>0.5047731781554882</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.1787017398543358</v>
+        <v>0.1927249413208006</v>
       </c>
       <c r="B10">
-        <v>0.7386104327943575</v>
+        <v>0.7091031794084663</v>
       </c>
       <c r="C10">
-        <v>0.6103796609646127</v>
+        <v>0.5725905260861619</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
